--- a/Data/WGOA station_list_dougherty_2019_ProjInstrutions.xlsx
+++ b/Data/WGOA station_list_dougherty_2019_ProjInstrutions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FOCI Logistics Group\FIELD OPERATION RESOURCES\STATION LISTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse.f.lamb\Work\GitHub\Survey_Station_Selection\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="281">
   <si>
     <t>Station</t>
   </si>
@@ -873,6 +873,9 @@
   </si>
   <si>
     <t>NEU, CTD</t>
+  </si>
+  <si>
+    <t>DH</t>
   </si>
 </sst>
 </file>
@@ -1239,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E272"/>
+  <dimension ref="A1:E273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,767 +1273,764 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>280</v>
       </c>
       <c r="C2" s="1">
-        <v>54.2879</v>
+        <v>53.874600000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>164.26840000000001</v>
+        <v>166.54230000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>54.173099999999998</v>
+        <v>54.2879</v>
       </c>
       <c r="D3" s="1">
-        <v>164.0241</v>
+        <v>164.26840000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>54.058300000000003</v>
+        <v>54.173099999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>163.78059999999999</v>
+        <v>164.0241</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>54.179299999999998</v>
+        <v>54.058300000000003</v>
       </c>
       <c r="D5" s="1">
-        <v>163.5848</v>
+        <v>163.78059999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>54.2941</v>
+        <v>54.179299999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>163.82769999999999</v>
+        <v>163.5848</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>54.408900000000003</v>
+        <v>54.2941</v>
       </c>
       <c r="D7" s="1">
-        <v>164.07149999999999</v>
+        <v>163.82769999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>54.917400000000001</v>
+        <v>54.408900000000003</v>
       </c>
       <c r="D8" s="1">
-        <v>161.52260000000001</v>
+        <v>164.07149999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>54.802599999999998</v>
+        <v>54.917400000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>161.28649999999999</v>
+        <v>161.52260000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>54.687800000000003</v>
+        <v>54.802599999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>161.0513</v>
+        <v>161.28649999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>54.808799999999998</v>
+        <v>54.687800000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>160.85239999999999</v>
+        <v>161.0513</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
-        <v>54.923499999999997</v>
+        <v>54.808799999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>161.08709999999999</v>
+        <v>160.85239999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>55.0383</v>
+        <v>54.923499999999997</v>
       </c>
       <c r="D13" s="1">
-        <v>161.32259999999999</v>
+        <v>161.08709999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>55.159300000000002</v>
+        <v>55.0383</v>
       </c>
       <c r="D14" s="1">
-        <v>161.12190000000001</v>
+        <v>161.32259999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>55.044499999999999</v>
+        <v>55.159300000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>160.887</v>
+        <v>161.12190000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>54.929699999999997</v>
+        <v>55.044499999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>160.65289999999999</v>
+        <v>160.887</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>54.470599999999997</v>
+        <v>54.929699999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>159.72409999999999</v>
+        <v>160.65289999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>54.354700000000001</v>
+        <v>54.470599999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>159.49940000000001</v>
+        <v>159.72409999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>54.476799999999997</v>
+        <v>54.354700000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>159.3004</v>
+        <v>159.49940000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
-        <v>54.591500000000003</v>
+        <v>54.476799999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>159.52629999999999</v>
+        <v>159.3004</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
-        <v>54.712499999999999</v>
+        <v>54.591500000000003</v>
       </c>
       <c r="D21" s="1">
-        <v>159.3279</v>
+        <v>159.52629999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
-        <v>54.598500000000001</v>
+        <v>54.712499999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>159.10140000000001</v>
+        <v>159.3279</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
-        <v>54.4786</v>
+        <v>54.598500000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>158.88380000000001</v>
+        <v>159.10140000000001</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1">
-        <v>54.358499999999999</v>
+        <v>54.4786</v>
       </c>
       <c r="D24" s="1">
-        <v>158.6662</v>
+        <v>158.88380000000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
-        <v>54.602200000000003</v>
+        <v>54.358499999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>158.2681</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>277</v>
+        <v>158.6662</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1">
-        <v>54.721600000000002</v>
+        <v>54.602200000000003</v>
       </c>
       <c r="D26" s="1">
-        <v>158.48580000000001</v>
+        <v>158.2681</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
-        <v>54.839599999999997</v>
+        <v>54.721600000000002</v>
       </c>
       <c r="D27" s="1">
-        <v>158.7012</v>
+        <v>158.48580000000001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
-        <v>54.9544</v>
+        <v>54.839599999999997</v>
       </c>
       <c r="D28" s="1">
-        <v>158.92930000000001</v>
+        <v>158.7012</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
-        <v>55.069200000000002</v>
+        <v>54.9544</v>
       </c>
       <c r="D29" s="1">
-        <v>159.15809999999999</v>
+        <v>158.92930000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
-        <v>55.2988</v>
+        <v>55.069200000000002</v>
       </c>
       <c r="D30" s="1">
-        <v>159.61799999999999</v>
+        <v>159.15809999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
-        <v>55.413499999999999</v>
+        <v>55.2988</v>
       </c>
       <c r="D31" s="1">
-        <v>159.84899999999999</v>
+        <v>159.61799999999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1">
-        <v>55.419699999999999</v>
+        <v>55.413499999999999</v>
       </c>
       <c r="D32" s="1">
-        <v>159.416</v>
+        <v>159.84899999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
-        <v>55.304900000000004</v>
+        <v>55.419699999999999</v>
       </c>
       <c r="D33" s="1">
-        <v>159.18629999999999</v>
+        <v>159.416</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
-        <v>55.190100000000001</v>
+        <v>55.304900000000004</v>
       </c>
       <c r="D34" s="1">
-        <v>158.95740000000001</v>
+        <v>159.18629999999999</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1">
-        <v>55.075400000000002</v>
+        <v>55.190100000000001</v>
       </c>
       <c r="D35" s="1">
-        <v>158.72909999999999</v>
+        <v>158.95740000000001</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1">
-        <v>54.960599999999999</v>
+        <v>55.075400000000002</v>
       </c>
       <c r="D36" s="1">
-        <v>158.5016</v>
+        <v>158.72909999999999</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1">
-        <v>54.842599999999997</v>
+        <v>54.960599999999999</v>
       </c>
       <c r="D37" s="1">
-        <v>158.2867</v>
+        <v>158.5016</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
-        <v>54.723500000000001</v>
+        <v>54.842599999999997</v>
       </c>
       <c r="D38" s="1">
-        <v>158.06909999999999</v>
+        <v>158.2867</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1">
-        <v>54.8444</v>
+        <v>54.723500000000001</v>
       </c>
       <c r="D39" s="1">
-        <v>157.87010000000001</v>
+        <v>158.06909999999999</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1">
-        <v>54.963099999999997</v>
+        <v>54.8444</v>
       </c>
       <c r="D40" s="1">
-        <v>158.08770000000001</v>
+        <v>157.87010000000001</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1">
-        <v>55.081499999999998</v>
+        <v>54.963099999999997</v>
       </c>
       <c r="D41" s="1">
-        <v>158.3014</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>277</v>
+        <v>158.08770000000001</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1">
-        <v>55.196300000000001</v>
+        <v>55.081499999999998</v>
       </c>
       <c r="D42" s="1">
-        <v>158.5283</v>
+        <v>158.3014</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="1">
-        <v>55.311100000000003</v>
+        <v>55.196300000000001</v>
       </c>
       <c r="D43" s="1">
-        <v>158.756</v>
+        <v>158.5283</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="1">
-        <v>55.425899999999999</v>
+        <v>55.311100000000003</v>
       </c>
       <c r="D44" s="1">
-        <v>158.98439999999999</v>
+        <v>158.756</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="1">
-        <v>55.540700000000001</v>
+        <v>55.425899999999999</v>
       </c>
       <c r="D45" s="1">
-        <v>159.21350000000001</v>
+        <v>158.98439999999999</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="1">
-        <v>55.6616</v>
+        <v>55.540700000000001</v>
       </c>
       <c r="D46" s="1">
-        <v>159.0103</v>
+        <v>159.21350000000001</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" s="1">
-        <v>55.546799999999998</v>
+        <v>55.6616</v>
       </c>
       <c r="D47" s="1">
-        <v>158.7818</v>
+        <v>159.0103</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="1">
-        <v>55.432099999999998</v>
+        <v>55.546799999999998</v>
       </c>
       <c r="D48" s="1">
-        <v>158.554</v>
+        <v>158.7818</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="1">
-        <v>55.317300000000003</v>
+        <v>55.432099999999998</v>
       </c>
       <c r="D49" s="1">
-        <v>158.32689999999999</v>
+        <v>158.554</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="1">
-        <v>55.202500000000001</v>
+        <v>55.317300000000003</v>
       </c>
       <c r="D50" s="1">
-        <v>158.10059999999999</v>
+        <v>158.32689999999999</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="1">
-        <v>55.083399999999997</v>
+        <v>55.202500000000001</v>
       </c>
       <c r="D51" s="1">
-        <v>157.8887</v>
+        <v>158.10059999999999</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="1">
-        <v>54.965000000000003</v>
+        <v>55.083399999999997</v>
       </c>
       <c r="D52" s="1">
-        <v>157.6711</v>
+        <v>157.8887</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="1">
-        <v>54.846299999999999</v>
+        <v>54.965000000000003</v>
       </c>
       <c r="D53" s="1">
-        <v>157.45349999999999</v>
+        <v>157.6711</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="1">
-        <v>54.979100000000003</v>
+        <v>54.846299999999999</v>
       </c>
       <c r="D54" s="1">
-        <v>157.226</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>277</v>
+        <v>157.45349999999999</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="1">
-        <v>55.093899999999998</v>
+        <v>54.979100000000003</v>
       </c>
       <c r="D55" s="1">
-        <v>157.44970000000001</v>
+        <v>157.226</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>277</v>
@@ -2038,16 +2038,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" s="1">
-        <v>55.2087</v>
+        <v>55.093899999999998</v>
       </c>
       <c r="D56" s="1">
-        <v>157.67400000000001</v>
+        <v>157.44970000000001</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>277</v>
@@ -2055,95 +2055,95 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" s="1">
-        <v>55.323399999999999</v>
+        <v>55.2087</v>
       </c>
       <c r="D57" s="1">
-        <v>157.8991</v>
+        <v>157.67400000000001</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="1">
-        <v>55.438200000000002</v>
+        <v>55.323399999999999</v>
       </c>
       <c r="D58" s="1">
-        <v>158.1249</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>277</v>
+        <v>157.8991</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="1">
-        <v>55.552999999999997</v>
+        <v>55.438200000000002</v>
       </c>
       <c r="D59" s="1">
-        <v>158.35130000000001</v>
+        <v>158.1249</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1">
-        <v>55.6678</v>
+        <v>55.552999999999997</v>
       </c>
       <c r="D60" s="1">
-        <v>158.57859999999999</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>277</v>
+        <v>158.35130000000001</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="1">
-        <v>55.903500000000001</v>
+        <v>55.6678</v>
       </c>
       <c r="D61" s="1">
-        <v>158.60210000000001</v>
+        <v>158.57859999999999</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" s="1">
-        <v>55.788800000000002</v>
+        <v>55.903500000000001</v>
       </c>
       <c r="D62" s="1">
-        <v>158.37469999999999</v>
+        <v>158.60210000000001</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>276</v>
@@ -2151,16 +2151,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" s="1">
-        <v>55.673999999999999</v>
+        <v>55.788800000000002</v>
       </c>
       <c r="D63" s="1">
-        <v>158.1481</v>
+        <v>158.37469999999999</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>276</v>
@@ -2168,16 +2168,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" s="1">
-        <v>55.559199999999997</v>
+        <v>55.673999999999999</v>
       </c>
       <c r="D64" s="1">
-        <v>157.9222</v>
+        <v>158.1481</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>276</v>
@@ -2185,16 +2185,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="1">
-        <v>55.444400000000002</v>
+        <v>55.559199999999997</v>
       </c>
       <c r="D65" s="1">
-        <v>157.69710000000001</v>
+        <v>157.9222</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>276</v>
@@ -2202,16 +2202,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="1">
-        <v>55.329599999999999</v>
+        <v>55.444400000000002</v>
       </c>
       <c r="D66" s="1">
-        <v>157.4726</v>
+        <v>157.69710000000001</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>276</v>
@@ -2219,16 +2219,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" s="1">
-        <v>55.214799999999997</v>
+        <v>55.329599999999999</v>
       </c>
       <c r="D67" s="1">
-        <v>157.24879999999999</v>
+        <v>157.4726</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>276</v>
@@ -2236,16 +2236,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" s="1">
-        <v>55.1</v>
+        <v>55.214799999999997</v>
       </c>
       <c r="D68" s="1">
-        <v>157.0257</v>
+        <v>157.24879999999999</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>276</v>
@@ -2253,16 +2253,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" s="1">
-        <v>54.985300000000002</v>
+        <v>55.1</v>
       </c>
       <c r="D69" s="1">
-        <v>156.80330000000001</v>
+        <v>157.0257</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>276</v>
@@ -2270,16 +2270,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" s="1">
-        <v>55.106200000000001</v>
+        <v>54.985300000000002</v>
       </c>
       <c r="D70" s="1">
-        <v>156.60300000000001</v>
+        <v>156.80330000000001</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>276</v>
@@ -2287,16 +2287,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" s="1">
-        <v>55.220999999999997</v>
+        <v>55.106200000000001</v>
       </c>
       <c r="D71" s="1">
-        <v>156.82480000000001</v>
+        <v>156.60300000000001</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>276</v>
@@ -2304,16 +2304,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" s="1">
-        <v>55.335799999999999</v>
+        <v>55.220999999999997</v>
       </c>
       <c r="D72" s="1">
-        <v>157.04730000000001</v>
+        <v>156.82480000000001</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>276</v>
@@ -2321,16 +2321,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" s="1">
-        <v>55.450600000000001</v>
+        <v>55.335799999999999</v>
       </c>
       <c r="D73" s="1">
-        <v>157.2705</v>
+        <v>157.04730000000001</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>276</v>
@@ -2338,16 +2338,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" s="1">
-        <v>55.565399999999997</v>
+        <v>55.450600000000001</v>
       </c>
       <c r="D74" s="1">
-        <v>157.49440000000001</v>
+        <v>157.2705</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>276</v>
@@ -2355,16 +2355,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" s="1">
-        <v>55.680100000000003</v>
+        <v>55.565399999999997</v>
       </c>
       <c r="D75" s="1">
-        <v>157.71889999999999</v>
+        <v>157.49440000000001</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>276</v>
@@ -2372,16 +2372,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" s="1">
-        <v>55.794899999999998</v>
+        <v>55.680100000000003</v>
       </c>
       <c r="D76" s="1">
-        <v>157.9442</v>
+        <v>157.71889999999999</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>276</v>
@@ -2389,16 +2389,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" s="1">
-        <v>55.909700000000001</v>
+        <v>55.794899999999998</v>
       </c>
       <c r="D77" s="1">
-        <v>158.17019999999999</v>
+        <v>157.9442</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>276</v>
@@ -2406,16 +2406,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78" s="1">
-        <v>56.030700000000003</v>
+        <v>55.909700000000001</v>
       </c>
       <c r="D78" s="1">
-        <v>157.96510000000001</v>
+        <v>158.17019999999999</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>276</v>
@@ -2423,16 +2423,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79" s="1">
-        <v>55.915900000000001</v>
+        <v>56.030700000000003</v>
       </c>
       <c r="D79" s="1">
-        <v>157.7397</v>
+        <v>157.96510000000001</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>276</v>
@@ -2440,16 +2440,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" s="1">
-        <v>55.801099999999998</v>
+        <v>55.915900000000001</v>
       </c>
       <c r="D80" s="1">
-        <v>157.51499999999999</v>
+        <v>157.7397</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>276</v>
@@ -2457,16 +2457,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C81" s="1">
-        <v>55.686300000000003</v>
+        <v>55.801099999999998</v>
       </c>
       <c r="D81" s="1">
-        <v>157.2911</v>
+        <v>157.51499999999999</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>276</v>
@@ -2474,16 +2474,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C82" s="1">
-        <v>55.5715</v>
+        <v>55.686300000000003</v>
       </c>
       <c r="D82" s="1">
-        <v>157.06780000000001</v>
+        <v>157.2911</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>276</v>
@@ -2491,16 +2491,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C83" s="1">
-        <v>55.456699999999998</v>
+        <v>55.5715</v>
       </c>
       <c r="D83" s="1">
-        <v>156.84520000000001</v>
+        <v>157.06780000000001</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>276</v>
@@ -2508,16 +2508,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C84" s="1">
-        <v>55.341999999999999</v>
+        <v>55.456699999999998</v>
       </c>
       <c r="D84" s="1">
-        <v>156.6232</v>
+        <v>156.84520000000001</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>276</v>
@@ -2525,16 +2525,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85" s="1">
-        <v>55.227200000000003</v>
+        <v>55.341999999999999</v>
       </c>
       <c r="D85" s="1">
-        <v>156.40199999999999</v>
+        <v>156.6232</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>276</v>
@@ -2542,16 +2542,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" s="1">
-        <v>55.348100000000002</v>
+        <v>55.227200000000003</v>
       </c>
       <c r="D86" s="1">
-        <v>156.2004</v>
+        <v>156.40199999999999</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>276</v>
@@ -2559,16 +2559,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" s="1">
-        <v>55.462899999999998</v>
+        <v>55.348100000000002</v>
       </c>
       <c r="D87" s="1">
-        <v>156.4211</v>
+        <v>156.2004</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>276</v>
@@ -2576,16 +2576,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88" s="1">
-        <v>55.5777</v>
+        <v>55.462899999999998</v>
       </c>
       <c r="D88" s="1">
-        <v>156.64240000000001</v>
+        <v>156.4211</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>276</v>
@@ -2593,16 +2593,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" s="1">
-        <v>55.692500000000003</v>
+        <v>55.5777</v>
       </c>
       <c r="D89" s="1">
-        <v>156.86439999999999</v>
+        <v>156.64240000000001</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>276</v>
@@ -2610,16 +2610,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1">
-        <v>55.807299999999998</v>
+        <v>55.692500000000003</v>
       </c>
       <c r="D90" s="1">
-        <v>157.08709999999999</v>
+        <v>156.86439999999999</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>276</v>
@@ -2627,16 +2627,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91" s="1">
-        <v>55.9221</v>
+        <v>55.807299999999998</v>
       </c>
       <c r="D91" s="1">
-        <v>157.31049999999999</v>
+        <v>157.08709999999999</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>276</v>
@@ -2644,16 +2644,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92" s="1">
-        <v>56.036799999999999</v>
+        <v>55.9221</v>
       </c>
       <c r="D92" s="1">
-        <v>157.53460000000001</v>
+        <v>157.31049999999999</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>276</v>
@@ -2661,16 +2661,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C93" s="1">
-        <v>56.151600000000002</v>
+        <v>56.036799999999999</v>
       </c>
       <c r="D93" s="1">
-        <v>157.7594</v>
+        <v>157.53460000000001</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>276</v>
@@ -2678,16 +2678,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C94" s="1">
-        <v>56.272599999999997</v>
+        <v>56.151600000000002</v>
       </c>
       <c r="D94" s="1">
-        <v>157.553</v>
+        <v>157.7594</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>276</v>
@@ -2695,50 +2695,50 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C95" s="1">
-        <v>56.157800000000002</v>
+        <v>56.272599999999997</v>
       </c>
       <c r="D95" s="1">
-        <v>157.3288</v>
+        <v>157.553</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C96" s="1">
-        <v>56.042999999999999</v>
+        <v>56.157800000000002</v>
       </c>
       <c r="D96" s="1">
-        <v>157.1053</v>
+        <v>157.3288</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C97" s="1">
-        <v>55.928199999999997</v>
+        <v>56.042999999999999</v>
       </c>
       <c r="D97" s="1">
-        <v>156.8826</v>
+        <v>157.1053</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>276</v>
@@ -2746,16 +2746,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C98" s="1">
-        <v>55.813400000000001</v>
+        <v>55.928199999999997</v>
       </c>
       <c r="D98" s="1">
-        <v>156.66050000000001</v>
+        <v>156.8826</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>276</v>
@@ -2763,16 +2763,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C99" s="1">
-        <v>55.698700000000002</v>
+        <v>55.813400000000001</v>
       </c>
       <c r="D99" s="1">
-        <v>156.43899999999999</v>
+        <v>156.66050000000001</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>276</v>
@@ -2780,16 +2780,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C100" s="1">
-        <v>55.5839</v>
+        <v>55.698700000000002</v>
       </c>
       <c r="D100" s="1">
-        <v>156.2183</v>
+        <v>156.43899999999999</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>276</v>
@@ -2797,16 +2797,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C101" s="1">
-        <v>55.469099999999997</v>
+        <v>55.5839</v>
       </c>
       <c r="D101" s="1">
-        <v>155.9982</v>
+        <v>156.2183</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>276</v>
@@ -2814,229 +2814,229 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C102" s="1">
-        <v>55.59</v>
+        <v>55.469099999999997</v>
       </c>
       <c r="D102" s="1">
-        <v>155.7954</v>
+        <v>155.9982</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C103" s="1">
-        <v>55.704799999999999</v>
+        <v>55.59</v>
       </c>
       <c r="D103" s="1">
-        <v>156.01490000000001</v>
+        <v>155.7954</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C104" s="1">
-        <v>55.819600000000001</v>
+        <v>55.704799999999999</v>
       </c>
       <c r="D104" s="1">
-        <v>156.23500000000001</v>
+        <v>156.01490000000001</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C105" s="1">
-        <v>55.934399999999997</v>
+        <v>55.819600000000001</v>
       </c>
       <c r="D105" s="1">
-        <v>156.45590000000001</v>
+        <v>156.23500000000001</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C106" s="1">
-        <v>56.164000000000001</v>
+        <v>55.934399999999997</v>
       </c>
       <c r="D106" s="1">
-        <v>156.89949999999999</v>
+        <v>156.45590000000001</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107" s="1">
-        <v>56.278700000000001</v>
+        <v>56.164000000000001</v>
       </c>
       <c r="D107" s="1">
-        <v>157.1224</v>
+        <v>156.89949999999999</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" s="1">
-        <v>56.393500000000003</v>
+        <v>56.278700000000001</v>
       </c>
       <c r="D108" s="1">
-        <v>157.3459</v>
+        <v>157.1224</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" s="1">
-        <v>56.399700000000003</v>
+        <v>56.393500000000003</v>
       </c>
       <c r="D109" s="1">
-        <v>156.9153</v>
+        <v>157.3459</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C110" s="1">
-        <v>56.2849</v>
+        <v>56.399700000000003</v>
       </c>
       <c r="D110" s="1">
-        <v>156.69300000000001</v>
+        <v>156.9153</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" s="1">
-        <v>56.170099999999998</v>
+        <v>56.2849</v>
       </c>
       <c r="D111" s="1">
-        <v>156.47149999999999</v>
+        <v>156.69300000000001</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112" s="1">
-        <v>56.055399999999999</v>
+        <v>56.170099999999998</v>
       </c>
       <c r="D112" s="1">
-        <v>156.25059999999999</v>
+        <v>156.47149999999999</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113" s="1">
-        <v>55.940600000000003</v>
+        <v>56.055399999999999</v>
       </c>
       <c r="D113" s="1">
-        <v>156.03039999999999</v>
+        <v>156.25059999999999</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C114" s="1">
-        <v>55.825800000000001</v>
+        <v>55.940600000000003</v>
       </c>
       <c r="D114" s="1">
-        <v>155.8109</v>
+        <v>156.03039999999999</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115" s="1">
-        <v>56.061500000000002</v>
+        <v>55.825800000000001</v>
       </c>
       <c r="D115" s="1">
-        <v>155.82509999999999</v>
+        <v>155.8109</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C116" s="1">
-        <v>56.176299999999998</v>
+        <v>56.061500000000002</v>
       </c>
       <c r="D116" s="1">
-        <v>156.04470000000001</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>274</v>
+        <v>155.82509999999999</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C117" s="1">
-        <v>56.2911</v>
+        <v>56.176299999999998</v>
       </c>
       <c r="D117" s="1">
-        <v>156.26499999999999</v>
+        <v>156.04470000000001</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>274</v>
@@ -3044,16 +3044,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C118" s="1">
-        <v>56.405900000000003</v>
+        <v>56.2911</v>
       </c>
       <c r="D118" s="1">
-        <v>156.48589999999999</v>
+        <v>156.26499999999999</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>274</v>
@@ -3061,16 +3061,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C119" s="1">
-        <v>56.520699999999998</v>
+        <v>56.405900000000003</v>
       </c>
       <c r="D119" s="1">
-        <v>156.70750000000001</v>
+        <v>156.48589999999999</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>274</v>
@@ -3078,16 +3078,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C120" s="1">
-        <v>56.635399999999997</v>
+        <v>56.520699999999998</v>
       </c>
       <c r="D120" s="1">
-        <v>156.9298</v>
+        <v>156.70750000000001</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>274</v>
@@ -3095,33 +3095,33 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C121" s="1">
-        <v>56.756399999999999</v>
+        <v>56.635399999999997</v>
       </c>
       <c r="D121" s="1">
-        <v>156.7208</v>
+        <v>156.9298</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C122" s="1">
-        <v>56.641599999999997</v>
+        <v>56.756399999999999</v>
       </c>
       <c r="D122" s="1">
-        <v>156.4991</v>
+        <v>156.7208</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>278</v>
@@ -3129,16 +3129,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C123" s="1">
-        <v>56.526800000000001</v>
+        <v>56.641599999999997</v>
       </c>
       <c r="D123" s="1">
-        <v>156.27809999999999</v>
+        <v>156.4991</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>278</v>
@@ -3146,16 +3146,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C124" s="1">
-        <v>56.411999999999999</v>
+        <v>56.526800000000001</v>
       </c>
       <c r="D124" s="1">
-        <v>156.05779999999999</v>
+        <v>156.27809999999999</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>278</v>
@@ -3163,16 +3163,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C125" s="1">
-        <v>56.2973</v>
+        <v>56.411999999999999</v>
       </c>
       <c r="D125" s="1">
-        <v>155.8382</v>
+        <v>156.05779999999999</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>278</v>
@@ -3180,64 +3180,64 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C126" s="1">
-        <v>56.182499999999997</v>
+        <v>56.2973</v>
       </c>
       <c r="D126" s="1">
-        <v>155.61920000000001</v>
+        <v>155.8382</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C127" s="1">
-        <v>56.303400000000003</v>
+        <v>56.182499999999997</v>
       </c>
       <c r="D127" s="1">
-        <v>155.4126</v>
+        <v>155.61920000000001</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C128" s="1">
-        <v>56.418199999999999</v>
+        <v>56.303400000000003</v>
       </c>
       <c r="D128" s="1">
-        <v>155.631</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>274</v>
+        <v>155.4126</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C129" s="1">
-        <v>56.533000000000001</v>
+        <v>56.418199999999999</v>
       </c>
       <c r="D129" s="1">
-        <v>155.85</v>
+        <v>155.631</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>274</v>
@@ -3245,16 +3245,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C130" s="1">
-        <v>56.647799999999997</v>
+        <v>56.533000000000001</v>
       </c>
       <c r="D130" s="1">
-        <v>156.06970000000001</v>
+        <v>155.85</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>274</v>
@@ -3262,16 +3262,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C131" s="1">
-        <v>56.762599999999999</v>
+        <v>56.647799999999997</v>
       </c>
       <c r="D131" s="1">
-        <v>156.29</v>
+        <v>156.06970000000001</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>274</v>
@@ -3279,16 +3279,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C132" s="1">
-        <v>56.877400000000002</v>
+        <v>56.762599999999999</v>
       </c>
       <c r="D132" s="1">
-        <v>156.5111</v>
+        <v>156.29</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>274</v>
@@ -3296,16 +3296,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C133" s="1">
-        <v>56.9983</v>
+        <v>56.877400000000002</v>
       </c>
       <c r="D133" s="1">
-        <v>156.30070000000001</v>
+        <v>156.5111</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>274</v>
@@ -3313,16 +3313,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C134" s="1">
-        <v>56.883499999999998</v>
+        <v>56.9983</v>
       </c>
       <c r="D134" s="1">
-        <v>156.08029999999999</v>
+        <v>156.30070000000001</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>274</v>
@@ -3330,16 +3330,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C135" s="1">
-        <v>56.768700000000003</v>
+        <v>56.883499999999998</v>
       </c>
       <c r="D135" s="1">
-        <v>155.86060000000001</v>
+        <v>156.08029999999999</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>274</v>
@@ -3347,16 +3347,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C136" s="1">
-        <v>56.654000000000003</v>
+        <v>56.768700000000003</v>
       </c>
       <c r="D136" s="1">
-        <v>155.64150000000001</v>
+        <v>155.86060000000001</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>274</v>
@@ -3364,16 +3364,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C137" s="1">
-        <v>56.539200000000001</v>
+        <v>56.654000000000003</v>
       </c>
       <c r="D137" s="1">
-        <v>155.42310000000001</v>
+        <v>155.64150000000001</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>274</v>
@@ -3381,16 +3381,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C138" s="1">
-        <v>56.6601</v>
+        <v>56.539200000000001</v>
       </c>
       <c r="D138" s="1">
-        <v>155.21459999999999</v>
+        <v>155.42310000000001</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>274</v>
@@ -3398,16 +3398,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C139" s="1">
-        <v>56.774900000000002</v>
+        <v>56.6601</v>
       </c>
       <c r="D139" s="1">
-        <v>155.4324</v>
+        <v>155.21459999999999</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>274</v>
@@ -3415,16 +3415,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C140" s="1">
-        <v>56.889699999999998</v>
+        <v>56.774900000000002</v>
       </c>
       <c r="D140" s="1">
-        <v>155.6508</v>
+        <v>155.4324</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>274</v>
@@ -3432,16 +3432,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C141" s="1">
-        <v>57.0045</v>
+        <v>56.889699999999998</v>
       </c>
       <c r="D141" s="1">
-        <v>155.8698</v>
+        <v>155.6508</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>274</v>
@@ -3449,16 +3449,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C142" s="1">
-        <v>57.119300000000003</v>
+        <v>57.0045</v>
       </c>
       <c r="D142" s="1">
-        <v>156.08959999999999</v>
+        <v>155.8698</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>274</v>
@@ -3466,285 +3466,285 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C143" s="1">
-        <v>57.354999999999997</v>
+        <v>57.119300000000003</v>
       </c>
       <c r="D143" s="1">
-        <v>156.08330000000001</v>
+        <v>156.08959999999999</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C144" s="1">
-        <v>57.240200000000002</v>
+        <v>57.354999999999997</v>
       </c>
       <c r="D144" s="1">
-        <v>155.87780000000001</v>
+        <v>156.08330000000001</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C145" s="1">
-        <v>57.125399999999999</v>
+        <v>57.240200000000002</v>
       </c>
       <c r="D145" s="1">
-        <v>155.65870000000001</v>
+        <v>155.87780000000001</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C146" s="1">
-        <v>57.0107</v>
+        <v>57.125399999999999</v>
       </c>
       <c r="D146" s="1">
-        <v>155.44030000000001</v>
+        <v>155.65870000000001</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C147" s="1">
-        <v>56.895899999999997</v>
+        <v>57.0107</v>
       </c>
       <c r="D147" s="1">
-        <v>155.2225</v>
+        <v>155.44030000000001</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C148" s="1">
-        <v>56.781100000000002</v>
+        <v>56.895899999999997</v>
       </c>
       <c r="D148" s="1">
-        <v>155.00540000000001</v>
+        <v>155.2225</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C149" s="1">
-        <v>56.902000000000001</v>
+        <v>56.781100000000002</v>
       </c>
       <c r="D149" s="1">
-        <v>154.79560000000001</v>
+        <v>155.00540000000001</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C150" s="1">
-        <v>57.016800000000003</v>
+        <v>56.902000000000001</v>
       </c>
       <c r="D150" s="1">
-        <v>155.012</v>
+        <v>154.79560000000001</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C151" s="1">
-        <v>57.131599999999999</v>
+        <v>57.016800000000003</v>
       </c>
       <c r="D151" s="1">
-        <v>155.22909999999999</v>
+        <v>155.012</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C152" s="1">
-        <v>57.246400000000001</v>
+        <v>57.131599999999999</v>
       </c>
       <c r="D152" s="1">
-        <v>155.4469</v>
+        <v>155.22909999999999</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C153" s="1">
-        <v>57.361199999999997</v>
+        <v>57.246400000000001</v>
       </c>
       <c r="D153" s="1">
-        <v>155.6653</v>
+        <v>155.4469</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C154" s="1">
-        <v>57.482100000000003</v>
+        <v>57.361199999999997</v>
       </c>
       <c r="D154" s="1">
-        <v>155.4521</v>
+        <v>155.6653</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C155" s="1">
-        <v>57.367400000000004</v>
+        <v>57.482100000000003</v>
       </c>
       <c r="D155" s="1">
-        <v>155.23439999999999</v>
+        <v>155.4521</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C156" s="1">
-        <v>57.252600000000001</v>
+        <v>57.367400000000004</v>
       </c>
       <c r="D156" s="1">
-        <v>155.01730000000001</v>
+        <v>155.23439999999999</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C157" s="1">
-        <v>57.137799999999999</v>
+        <v>57.252600000000001</v>
       </c>
       <c r="D157" s="1">
-        <v>154.80080000000001</v>
+        <v>155.01730000000001</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C158" s="1">
-        <v>57.3735</v>
+        <v>57.137799999999999</v>
       </c>
       <c r="D158" s="1">
-        <v>154.8047</v>
+        <v>154.80080000000001</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C159" s="1">
-        <v>57.488300000000002</v>
+        <v>57.3735</v>
       </c>
       <c r="D159" s="1">
-        <v>155.02119999999999</v>
+        <v>154.8047</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C160" s="1">
-        <v>57.603099999999998</v>
+        <v>57.488300000000002</v>
       </c>
       <c r="D160" s="1">
-        <v>155.23830000000001</v>
+        <v>155.02119999999999</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C161" s="1">
-        <v>57.72</v>
+        <v>57.603099999999998</v>
       </c>
       <c r="D161" s="1">
-        <v>155.26</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>277</v>
+        <v>155.23830000000001</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C162" s="1">
-        <v>57.68</v>
+        <v>57.72</v>
       </c>
       <c r="D162" s="1">
-        <v>155.16999999999999</v>
+        <v>155.26</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>277</v>
@@ -3752,16 +3752,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C163" s="1">
-        <v>57.64</v>
+        <v>57.68</v>
       </c>
       <c r="D163" s="1">
-        <v>155.07</v>
+        <v>155.16999999999999</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>277</v>
@@ -3769,16 +3769,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C164" s="1">
-        <v>57.61</v>
+        <v>57.64</v>
       </c>
       <c r="D164" s="1">
-        <v>155.01</v>
+        <v>155.07</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>277</v>
@@ -3786,16 +3786,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C165" s="1">
-        <v>57.55</v>
+        <v>57.61</v>
       </c>
       <c r="D165" s="1">
-        <v>154.88</v>
+        <v>155.01</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>277</v>
@@ -3803,16 +3803,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C166" s="1">
-        <v>57.52</v>
+        <v>57.55</v>
       </c>
       <c r="D166" s="1">
-        <v>154.78</v>
+        <v>154.88</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>277</v>
@@ -3820,327 +3820,327 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C167" s="1">
-        <v>57.609299999999998</v>
+        <v>57.52</v>
       </c>
       <c r="D167" s="1">
-        <v>154.8073</v>
+        <v>154.78</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C168" s="1">
-        <v>57.730200000000004</v>
+        <v>57.609299999999998</v>
       </c>
       <c r="D168" s="1">
-        <v>154.59270000000001</v>
+        <v>154.8073</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C169" s="1">
-        <v>57.851199999999999</v>
+        <v>57.730200000000004</v>
       </c>
       <c r="D169" s="1">
-        <v>154.37729999999999</v>
+        <v>154.59270000000001</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C170" s="1">
-        <v>57.972099999999998</v>
+        <v>57.851199999999999</v>
       </c>
       <c r="D170" s="1">
-        <v>154.16120000000001</v>
+        <v>154.37729999999999</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C171" s="1">
-        <v>58.0931</v>
+        <v>57.972099999999998</v>
       </c>
       <c r="D171" s="1">
-        <v>153.9444</v>
+        <v>154.16120000000001</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C172" s="1">
-        <v>58.214100000000002</v>
+        <v>58.0931</v>
       </c>
       <c r="D172" s="1">
-        <v>153.7269</v>
+        <v>153.9444</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C173" s="1">
-        <v>58.335000000000001</v>
+        <v>58.214100000000002</v>
       </c>
       <c r="D173" s="1">
-        <v>153.5086</v>
+        <v>153.7269</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C174" s="1">
-        <v>58.456000000000003</v>
+        <v>58.335000000000001</v>
       </c>
       <c r="D174" s="1">
-        <v>153.2895</v>
+        <v>153.5086</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C175" s="1">
-        <v>58.576900000000002</v>
+        <v>58.456000000000003</v>
       </c>
       <c r="D175" s="1">
-        <v>153.06970000000001</v>
+        <v>153.2895</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C176" s="1">
-        <v>58.697899999999997</v>
+        <v>58.576900000000002</v>
       </c>
       <c r="D176" s="1">
-        <v>152.8492</v>
+        <v>153.06970000000001</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C177" s="1">
-        <v>58.818800000000003</v>
+        <v>58.697899999999997</v>
       </c>
       <c r="D177" s="1">
-        <v>152.62790000000001</v>
+        <v>152.8492</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C178" s="1">
-        <v>58.939799999999998</v>
+        <v>58.818800000000003</v>
       </c>
       <c r="D178" s="1">
-        <v>152.4058</v>
+        <v>152.62790000000001</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C179" s="1">
-        <v>58.825000000000003</v>
+        <v>58.939799999999998</v>
       </c>
       <c r="D179" s="1">
-        <v>152.1978</v>
+        <v>152.4058</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C180" s="1">
-        <v>59.060699999999997</v>
+        <v>58.825000000000003</v>
       </c>
       <c r="D180" s="1">
-        <v>152.18289999999999</v>
+        <v>152.1978</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C181" s="1">
-        <v>59.066899999999997</v>
+        <v>59.060699999999997</v>
       </c>
       <c r="D181" s="1">
-        <v>151.7527</v>
+        <v>152.18289999999999</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C182" s="1">
-        <v>59.073099999999997</v>
+        <v>59.066899999999997</v>
       </c>
       <c r="D182" s="1">
-        <v>151.32380000000001</v>
+        <v>151.7527</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C183" s="1">
-        <v>59.079300000000003</v>
+        <v>59.073099999999997</v>
       </c>
       <c r="D183" s="1">
-        <v>150.89619999999999</v>
+        <v>151.32380000000001</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C184" s="1">
-        <v>59.197000000000003</v>
+        <v>59.079300000000003</v>
       </c>
       <c r="D184" s="1">
-        <v>150.6781</v>
+        <v>150.89619999999999</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C185" s="1">
-        <v>59.314399999999999</v>
+        <v>59.197000000000003</v>
       </c>
       <c r="D185" s="1">
-        <v>150.46</v>
+        <v>150.6781</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C186" s="1">
-        <v>59.206400000000002</v>
+        <v>59.314399999999999</v>
       </c>
       <c r="D186" s="1">
-        <v>150.24600000000001</v>
+        <v>150.46</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C187" s="1">
-        <v>59.0916</v>
+        <v>59.206400000000002</v>
       </c>
       <c r="D187" s="1">
-        <v>150.04470000000001</v>
+        <v>150.24600000000001</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C188" s="1">
-        <v>58.976799999999997</v>
+        <v>59.0916</v>
       </c>
       <c r="D188" s="1">
-        <v>149.84389999999999</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>276</v>
+        <v>150.04470000000001</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C189" s="1">
-        <v>58.862000000000002</v>
+        <v>58.976799999999997</v>
       </c>
       <c r="D189" s="1">
-        <v>149.64359999999999</v>
+        <v>149.84389999999999</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>276</v>
@@ -4148,16 +4148,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C190" s="1">
-        <v>58.741100000000003</v>
+        <v>58.862000000000002</v>
       </c>
       <c r="D190" s="1">
-        <v>149.86519999999999</v>
+        <v>149.64359999999999</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>276</v>
@@ -4165,16 +4165,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C191" s="1">
-        <v>58.856999999999999</v>
+        <v>58.741100000000003</v>
       </c>
       <c r="D191" s="1">
-        <v>150.06399999999999</v>
+        <v>149.86519999999999</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>276</v>
@@ -4182,16 +4182,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C192" s="1">
-        <v>58.970700000000001</v>
+        <v>58.856999999999999</v>
       </c>
       <c r="D192" s="1">
-        <v>150.26769999999999</v>
+        <v>150.06399999999999</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>276</v>
@@ -4199,16 +4199,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C193" s="1">
-        <v>59.0854</v>
+        <v>58.970700000000001</v>
       </c>
       <c r="D193" s="1">
-        <v>150.4699</v>
+        <v>150.26769999999999</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>276</v>
@@ -4216,16 +4216,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C194" s="1">
-        <v>58.964500000000001</v>
+        <v>59.0854</v>
       </c>
       <c r="D194" s="1">
-        <v>150.69290000000001</v>
+        <v>150.4699</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>276</v>
@@ -4233,16 +4233,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C195" s="1">
-        <v>58.849699999999999</v>
+        <v>58.964500000000001</v>
       </c>
       <c r="D195" s="1">
-        <v>150.49</v>
+        <v>150.69290000000001</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>276</v>
@@ -4250,16 +4250,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C196" s="1">
-        <v>58.734900000000003</v>
+        <v>58.849699999999999</v>
       </c>
       <c r="D196" s="1">
-        <v>150.2878</v>
+        <v>150.49</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>276</v>
@@ -4267,16 +4267,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C197" s="1">
-        <v>58.620100000000001</v>
+        <v>58.734900000000003</v>
       </c>
       <c r="D197" s="1">
-        <v>150.08600000000001</v>
+        <v>150.2878</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>276</v>
@@ -4284,16 +4284,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C198" s="1">
-        <v>58.499200000000002</v>
+        <v>58.620100000000001</v>
       </c>
       <c r="D198" s="1">
-        <v>150.30609999999999</v>
+        <v>150.08600000000001</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>276</v>
@@ -4301,16 +4301,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C199" s="1">
-        <v>58.613999999999997</v>
+        <v>58.499200000000002</v>
       </c>
       <c r="D199" s="1">
-        <v>150.5086</v>
+        <v>150.30609999999999</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>276</v>
@@ -4318,16 +4318,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C200" s="1">
-        <v>58.728700000000003</v>
+        <v>58.613999999999997</v>
       </c>
       <c r="D200" s="1">
-        <v>150.7115</v>
+        <v>150.5086</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>276</v>
@@ -4335,16 +4335,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C201" s="1">
-        <v>58.843499999999999</v>
+        <v>58.728700000000003</v>
       </c>
       <c r="D201" s="1">
-        <v>150.9151</v>
+        <v>150.7115</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>276</v>
@@ -4352,16 +4352,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C202" s="1">
-        <v>58.958300000000001</v>
+        <v>58.843499999999999</v>
       </c>
       <c r="D202" s="1">
-        <v>151.11920000000001</v>
+        <v>150.9151</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>276</v>
@@ -4369,16 +4369,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C203" s="1">
-        <v>58.952100000000002</v>
+        <v>58.958300000000001</v>
       </c>
       <c r="D203" s="1">
-        <v>151.54679999999999</v>
+        <v>151.11920000000001</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>276</v>
@@ -4386,16 +4386,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C204" s="1">
-        <v>58.837400000000002</v>
+        <v>58.952100000000002</v>
       </c>
       <c r="D204" s="1">
-        <v>151.34139999999999</v>
+        <v>151.54679999999999</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>276</v>
@@ -4403,16 +4403,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C205" s="1">
-        <v>58.7226</v>
+        <v>58.837400000000002</v>
       </c>
       <c r="D205" s="1">
-        <v>151.13659999999999</v>
+        <v>151.34139999999999</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>276</v>
@@ -4420,16 +4420,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C206" s="1">
-        <v>58.607799999999997</v>
+        <v>58.7226</v>
       </c>
       <c r="D206" s="1">
-        <v>150.9323</v>
+        <v>151.13659999999999</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>276</v>
@@ -4437,16 +4437,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C207" s="1">
-        <v>58.493000000000002</v>
+        <v>58.607799999999997</v>
       </c>
       <c r="D207" s="1">
-        <v>150.7286</v>
+        <v>150.9323</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>276</v>
@@ -4454,16 +4454,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C208" s="1">
-        <v>58.3782</v>
+        <v>58.493000000000002</v>
       </c>
       <c r="D208" s="1">
-        <v>150.52539999999999</v>
+        <v>150.7286</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>276</v>
@@ -4471,16 +4471,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C209" s="1">
-        <v>58.257300000000001</v>
+        <v>58.3782</v>
       </c>
       <c r="D209" s="1">
-        <v>150.7439</v>
+        <v>150.52539999999999</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>276</v>
@@ -4488,16 +4488,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C210" s="1">
-        <v>58.372</v>
+        <v>58.257300000000001</v>
       </c>
       <c r="D210" s="1">
-        <v>150.9479</v>
+        <v>150.7439</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>276</v>
@@ -4505,16 +4505,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C211" s="1">
-        <v>58.486800000000002</v>
+        <v>58.372</v>
       </c>
       <c r="D211" s="1">
-        <v>151.1523</v>
+        <v>150.9479</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>276</v>
@@ -4522,16 +4522,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C212" s="1">
-        <v>58.601599999999998</v>
+        <v>58.486800000000002</v>
       </c>
       <c r="D212" s="1">
-        <v>151.35730000000001</v>
+        <v>151.1523</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>276</v>
@@ -4539,16 +4539,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C213" s="1">
-        <v>58.7164</v>
+        <v>58.601599999999998</v>
       </c>
       <c r="D213" s="1">
-        <v>151.56290000000001</v>
+        <v>151.35730000000001</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>276</v>
@@ -4556,16 +4556,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C214" s="1">
-        <v>58.831200000000003</v>
+        <v>58.7164</v>
       </c>
       <c r="D214" s="1">
-        <v>151.7689</v>
+        <v>151.56290000000001</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>276</v>
@@ -4573,523 +4573,523 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C215" s="1">
-        <v>58.7102</v>
+        <v>58.831200000000003</v>
       </c>
       <c r="D215" s="1">
-        <v>151.99029999999999</v>
+        <v>151.7689</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C216" s="1">
-        <v>58.595399999999998</v>
+        <v>58.7102</v>
       </c>
       <c r="D216" s="1">
-        <v>151.7835</v>
+        <v>151.99029999999999</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C217" s="1">
-        <v>58.474499999999999</v>
+        <v>58.595399999999998</v>
       </c>
       <c r="D217" s="1">
-        <v>152.0034</v>
+        <v>151.7835</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C218" s="1">
-        <v>58.480699999999999</v>
+        <v>58.474499999999999</v>
       </c>
       <c r="D218" s="1">
-        <v>151.5772</v>
+        <v>152.0034</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C219" s="1">
-        <v>58.359699999999997</v>
+        <v>58.480699999999999</v>
       </c>
       <c r="D219" s="1">
-        <v>151.79640000000001</v>
+        <v>151.5772</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C220" s="1">
-        <v>58.365900000000003</v>
+        <v>58.359699999999997</v>
       </c>
       <c r="D220" s="1">
-        <v>151.3715</v>
+        <v>151.79640000000001</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C221" s="1">
-        <v>58.244900000000001</v>
+        <v>58.365900000000003</v>
       </c>
       <c r="D221" s="1">
-        <v>151.59</v>
+        <v>151.3715</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C222" s="1">
-        <v>58.251100000000001</v>
+        <v>58.244900000000001</v>
       </c>
       <c r="D222" s="1">
-        <v>151.16640000000001</v>
+        <v>151.59</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C223" s="1">
-        <v>58.136299999999999</v>
+        <v>58.251100000000001</v>
       </c>
       <c r="D223" s="1">
-        <v>150.96170000000001</v>
+        <v>151.16640000000001</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C224" s="1">
-        <v>58.021500000000003</v>
+        <v>58.136299999999999</v>
       </c>
       <c r="D224" s="1">
-        <v>150.7577</v>
+        <v>150.96170000000001</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C225" s="1">
-        <v>57.904699999999998</v>
+        <v>58.021500000000003</v>
       </c>
       <c r="D225" s="1">
-        <v>150.54730000000001</v>
+        <v>150.7577</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C226" s="1">
-        <v>57.785400000000003</v>
+        <v>57.904699999999998</v>
       </c>
       <c r="D226" s="1">
-        <v>150.76</v>
+        <v>150.54730000000001</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C227" s="1">
-        <v>57.900599999999997</v>
+        <v>57.785400000000003</v>
       </c>
       <c r="D227" s="1">
-        <v>150.97409999999999</v>
+        <v>150.76</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C228" s="1">
-        <v>58.015300000000003</v>
+        <v>57.900599999999997</v>
       </c>
       <c r="D228" s="1">
-        <v>151.1788</v>
+        <v>150.97409999999999</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C229" s="1">
-        <v>58.130099999999999</v>
+        <v>58.015300000000003</v>
       </c>
       <c r="D229" s="1">
-        <v>151.38409999999999</v>
+        <v>151.1788</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C230" s="1">
-        <v>58.124000000000002</v>
+        <v>58.130099999999999</v>
       </c>
       <c r="D230" s="1">
-        <v>151.80770000000001</v>
+        <v>151.38409999999999</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C231" s="1">
-        <v>58.0092</v>
+        <v>58.124000000000002</v>
       </c>
       <c r="D231" s="1">
-        <v>151.60120000000001</v>
+        <v>151.80770000000001</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C232" s="1">
-        <v>57.894399999999997</v>
+        <v>58.0092</v>
       </c>
       <c r="D232" s="1">
-        <v>151.39519999999999</v>
+        <v>151.60120000000001</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C233" s="1">
-        <v>57.779600000000002</v>
+        <v>57.894399999999997</v>
       </c>
       <c r="D233" s="1">
-        <v>151.18969999999999</v>
+        <v>151.39519999999999</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C234" s="1">
-        <v>57.665599999999998</v>
+        <v>57.779600000000002</v>
       </c>
       <c r="D234" s="1">
-        <v>150.97280000000001</v>
+        <v>151.18969999999999</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C235" s="1">
-        <v>57.545499999999997</v>
+        <v>57.665599999999998</v>
       </c>
       <c r="D235" s="1">
-        <v>151.1857</v>
+        <v>150.97280000000001</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C236" s="1">
-        <v>57.6586</v>
+        <v>57.545499999999997</v>
       </c>
       <c r="D236" s="1">
-        <v>151.40469999999999</v>
+        <v>151.1857</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C237" s="1">
-        <v>57.773400000000002</v>
+        <v>57.6586</v>
       </c>
       <c r="D237" s="1">
-        <v>151.61080000000001</v>
+        <v>151.40469999999999</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C238" s="1">
-        <v>57.888199999999998</v>
+        <v>57.773400000000002</v>
       </c>
       <c r="D238" s="1">
-        <v>151.8175</v>
+        <v>151.61080000000001</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C239" s="1">
-        <v>58.003</v>
+        <v>57.888199999999998</v>
       </c>
       <c r="D239" s="1">
-        <v>152.0247</v>
+        <v>151.8175</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C240" s="1">
-        <v>57.767299999999999</v>
+        <v>58.003</v>
       </c>
       <c r="D240" s="1">
-        <v>152.03299999999999</v>
+        <v>152.0247</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C241" s="1">
-        <v>57.652500000000003</v>
+        <v>57.767299999999999</v>
       </c>
       <c r="D241" s="1">
-        <v>151.82570000000001</v>
+        <v>152.03299999999999</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C242" s="1">
-        <v>57.537700000000001</v>
+        <v>57.652500000000003</v>
       </c>
       <c r="D242" s="1">
-        <v>151.6189</v>
+        <v>151.82570000000001</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C243" s="1">
-        <v>57.424900000000001</v>
+        <v>57.537700000000001</v>
       </c>
       <c r="D243" s="1">
-        <v>151.39859999999999</v>
+        <v>151.6189</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C244" s="1">
-        <v>57.303899999999999</v>
+        <v>57.424900000000001</v>
       </c>
       <c r="D244" s="1">
-        <v>151.6114</v>
+        <v>151.39859999999999</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C245" s="1">
-        <v>57.416699999999999</v>
+        <v>57.303899999999999</v>
       </c>
       <c r="D245" s="1">
-        <v>151.83240000000001</v>
+        <v>151.6114</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C246" s="1">
-        <v>57.531500000000001</v>
+        <v>57.416699999999999</v>
       </c>
       <c r="D246" s="1">
-        <v>152.03980000000001</v>
+        <v>151.83240000000001</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C247" s="1">
-        <v>57.410600000000002</v>
+        <v>57.531500000000001</v>
       </c>
       <c r="D247" s="1">
-        <v>152.2533</v>
+        <v>152.03980000000001</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C248" s="1">
-        <v>57.2958</v>
+        <v>57.410600000000002</v>
       </c>
       <c r="D248" s="1">
-        <v>152.04519999999999</v>
+        <v>152.2533</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C249" s="1">
-        <v>57.182600000000001</v>
+        <v>57.2958</v>
       </c>
       <c r="D249" s="1">
-        <v>151.82429999999999</v>
+        <v>152.04519999999999</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C250" s="1">
-        <v>57.0608</v>
+        <v>57.182600000000001</v>
       </c>
       <c r="D250" s="1">
-        <v>152.03710000000001</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>276</v>
+        <v>151.82429999999999</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C251" s="1">
-        <v>57.174799999999998</v>
+        <v>57.0608</v>
       </c>
       <c r="D251" s="1">
-        <v>152.25729999999999</v>
+        <v>152.03710000000001</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>276</v>
@@ -5097,16 +5097,16 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C252" s="1">
-        <v>57.2896</v>
+        <v>57.174799999999998</v>
       </c>
       <c r="D252" s="1">
-        <v>152.46600000000001</v>
+        <v>152.25729999999999</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>276</v>
@@ -5114,16 +5114,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C253" s="1">
-        <v>57.168599999999998</v>
+        <v>57.2896</v>
       </c>
       <c r="D253" s="1">
-        <v>152.6781</v>
+        <v>152.46600000000001</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>276</v>
@@ -5131,16 +5131,16 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C254" s="1">
-        <v>57.053899999999999</v>
+        <v>57.168599999999998</v>
       </c>
       <c r="D254" s="1">
-        <v>152.46870000000001</v>
+        <v>152.6781</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>276</v>
@@ -5148,16 +5148,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C255" s="1">
-        <v>56.938600000000001</v>
+        <v>57.053899999999999</v>
       </c>
       <c r="D255" s="1">
-        <v>152.25</v>
+        <v>152.46870000000001</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>276</v>
@@ -5165,16 +5165,16 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C256" s="1">
-        <v>56.816099999999999</v>
+        <v>56.938600000000001</v>
       </c>
       <c r="D256" s="1">
-        <v>152.46289999999999</v>
+        <v>152.25</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>276</v>
@@ -5182,16 +5182,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C257" s="1">
-        <v>56.932899999999997</v>
+        <v>56.816099999999999</v>
       </c>
       <c r="D257" s="1">
-        <v>152.67939999999999</v>
+        <v>152.46289999999999</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>276</v>
@@ -5199,16 +5199,16 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C258" s="1">
-        <v>57.047699999999999</v>
+        <v>56.932899999999997</v>
       </c>
       <c r="D258" s="1">
-        <v>152.8895</v>
+        <v>152.67939999999999</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>276</v>
@@ -5216,16 +5216,16 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C259" s="1">
-        <v>56.926699999999997</v>
+        <v>57.047699999999999</v>
       </c>
       <c r="D259" s="1">
-        <v>153.1002</v>
+        <v>152.8895</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>276</v>
@@ -5233,16 +5233,16 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C260" s="1">
-        <v>56.811999999999998</v>
+        <v>56.926699999999997</v>
       </c>
       <c r="D260" s="1">
-        <v>152.88939999999999</v>
+        <v>153.1002</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>276</v>
@@ -5250,16 +5250,16 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C261" s="1">
-        <v>56.693100000000001</v>
+        <v>56.811999999999998</v>
       </c>
       <c r="D261" s="1">
-        <v>152.67570000000001</v>
+        <v>152.88939999999999</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>276</v>
@@ -5267,16 +5267,16 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C262" s="1">
-        <v>56.572800000000001</v>
+        <v>56.693100000000001</v>
       </c>
       <c r="D262" s="1">
-        <v>152.88329999999999</v>
+        <v>152.67570000000001</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>276</v>
@@ -5284,16 +5284,16 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C263" s="1">
-        <v>56.691000000000003</v>
+        <v>56.572800000000001</v>
       </c>
       <c r="D263" s="1">
-        <v>153.09880000000001</v>
+        <v>152.88329999999999</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>276</v>
@@ -5301,16 +5301,16 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C264" s="1">
-        <v>56.805799999999998</v>
+        <v>56.691000000000003</v>
       </c>
       <c r="D264" s="1">
-        <v>153.31020000000001</v>
+        <v>153.09880000000001</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>276</v>
@@ -5318,16 +5318,16 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C265" s="1">
-        <v>56.684800000000003</v>
+        <v>56.805799999999998</v>
       </c>
       <c r="D265" s="1">
-        <v>153.51949999999999</v>
+        <v>153.31020000000001</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>276</v>
@@ -5335,16 +5335,16 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C266" s="1">
-        <v>56.57</v>
+        <v>56.684800000000003</v>
       </c>
       <c r="D266" s="1">
-        <v>153.3075</v>
+        <v>153.51949999999999</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>276</v>
@@ -5352,16 +5352,16 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C267" s="1">
-        <v>56.450099999999999</v>
+        <v>56.57</v>
       </c>
       <c r="D267" s="1">
-        <v>153.09440000000001</v>
+        <v>153.3075</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>276</v>
@@ -5369,16 +5369,16 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C268" s="1">
-        <v>56.332000000000001</v>
+        <v>56.450099999999999</v>
       </c>
       <c r="D268" s="1">
-        <v>153.29679999999999</v>
+        <v>153.09440000000001</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>276</v>
@@ -5386,16 +5386,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C269" s="1">
-        <v>56.449100000000001</v>
+        <v>56.332000000000001</v>
       </c>
       <c r="D269" s="1">
-        <v>153.5155</v>
+        <v>153.29679999999999</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>276</v>
@@ -5403,16 +5403,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C270" s="1">
-        <v>56.563899999999997</v>
+        <v>56.449100000000001</v>
       </c>
       <c r="D270" s="1">
-        <v>153.72810000000001</v>
+        <v>153.5155</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>276</v>
@@ -5420,20 +5420,37 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C271" s="1">
+        <v>56.563899999999997</v>
+      </c>
+      <c r="D271" s="1">
+        <v>153.72810000000001</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B272" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C271" s="1">
+      <c r="C272" s="1">
         <v>56.678699999999999</v>
       </c>
-      <c r="D271" s="1">
+      <c r="D272" s="1">
         <v>153.94139999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="3"/>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/WGOA station_list_dougherty_2019_ProjInstrutions.xlsx
+++ b/Data/WGOA station_list_dougherty_2019_ProjInstrutions.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All!$A$1:$E$273</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1245,7 +1248,7 @@
   <dimension ref="A1:E273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E117" sqref="E117:E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
